--- a/pred_ohlcv/54_21/2019-10-26 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>0.8746349500000017</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1.030534950000002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-0.3422655199999989</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3.911857369999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3.107957369999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2.101894159999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2.101894159999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-3.325494159999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1.148694159999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3.818292870000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3.818292870000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3.183692870000002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>38.72744263</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>50.82274263</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>62.65964263</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>47.58834263</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>58.86634263</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>84.37148829999998</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>86.27837086999997</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>81.09967086999997</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>87.24706447999998</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>94.17536088999998</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>86.39770890999998</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>104.17938449</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>124.96188449</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>142.50132592</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>116.66587885</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>134.76877885</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>163.52657885</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>233.21085447</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>944.6497471099999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1071.93314703</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>929.8282790599999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>804.4547171899999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>877.3450549399998</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>805.1635086199999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>733.0773381899999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1006.44743795</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>982.2270379500001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1007.52083477</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1048.90722453</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1109.12652453</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1072.58917122</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1151.50321367</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1096.52721347</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1146.37068683</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1117.15428878</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1083.48888878</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1029.92398904</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>994.5814890399997</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>2634.356641659999</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>2663.899741659999</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>2784.521492359999</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>2908.920535519999</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>2734.438521529999</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>2640.132587659999</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>2697.628124949999</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>2762.71608307</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>2726.426292499999</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>2772.745268019999</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>2723.69984028</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>2681.8660037</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>2597.761207879999</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>2641.747615689999</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>2584.777818199999</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>2597.284317769999</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>2645.629079389999</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>2672.587658589999</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>2692.301258589999</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>2715.484796679999</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>2697.705665589999</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>2662.514897949999</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>2703.774542479999</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>2728.941023789999</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>2746.759423789999</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>2725.806023789999</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>2777.923925709999</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>2704.51110784</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>2685.88266947</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>2732.71334972</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>2777.59043383</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>2833.65032076</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>2874.61431186</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>2959.5450429</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>3087.6950848</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>3022.39688483</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>2977.36798868</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>2924.065178039999</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>2973.742359469999</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>3004.961667409999</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>3067.752505189999</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>3033.236975269999</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>3053.371380049999</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>3017.309548029999</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>3042.489179109999</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>3059.368006209999</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>3095.744065359999</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>3127.337283999999</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>3186.118372769999</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>3319.090437049999</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>4026.357718369999</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>3868.843168379999</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>3755.96680792</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>3586.84290185</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>3417.78031773</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>3529.3000445</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>3790.11374875</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>3693.149741549999</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>3593.512927929999</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>3683.19476918</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>3601.46395491</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>3558.33735803</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>3626.83647623</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>3759.32093439</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>3684.58518644</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>3603.19514012</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>3513.92770222</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>3423.90782887</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>3356.63908435</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>3305.32440051</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>3399.71203398</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>3343.23615902</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>3326.65178864</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>3212.25930319</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>3340.619710739999</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>3417.650058179999</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>3344.576743479999</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>3223.745939479999</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>3281.842585699999</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>3309.782882959999</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>3410.503437389999</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>3453.608500189999</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>3017.562666599998</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>3096.777626089998</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>3125.691017599998</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>3098.294365819998</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>3109.044950969998</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>3100.538111979999</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>3090.245686939998</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>3075.864043349999</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>3092.217643349999</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>3076.117238299998</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>3080.613640439999</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>3095.250340439999</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>3108.493455319999</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>3095.783255319999</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>3098.741855319999</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>3116.353336369998</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>3140.059836369998</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>3114.876512869998</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>3049.713386439998</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>3034.646486439998</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>3010.202786439998</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>3035.713086439998</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>3028.727886439998</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1270" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BTC ohlcv.xlsx
@@ -3408,7 +3408,7 @@
         <v>84.37148829999998</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>86.27837086999997</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>81.09967086999997</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>87.24706447999998</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>94.17536088999998</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>86.39770890999998</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>104.17938449</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>124.96188449</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>944.6497471099999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1071.93314703</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>929.8282790599999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>804.4547171899999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>877.3450549399998</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>805.1635086199999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>733.0773381899999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1006.44743795</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>982.2270379500001</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1007.52083477</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1048.90722453</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1109.12652453</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1072.58917122</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1151.50321367</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1096.52721347</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1146.37068683</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1117.15428878</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1083.48888878</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1029.92398904</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>994.5814890399997</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>2634.356641659999</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>2663.899741659999</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>2784.521492359999</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>2908.920535519999</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>2734.438521529999</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>2640.132587659999</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>2697.628124949999</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>2762.71608307</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>2726.426292499999</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>2772.745268019999</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>2723.69984028</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>2681.8660037</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>2597.761207879999</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>2641.747615689999</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>2584.777818199999</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>2597.284317769999</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>2645.629079389999</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>2672.587658589999</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>2692.301258589999</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>2715.484796679999</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>2697.705665589999</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>2662.514897949999</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>2703.774542479999</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>2728.941023789999</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>2746.759423789999</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>2725.806023789999</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>2777.923925709999</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>2704.51110784</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>2685.88266947</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>2732.71334972</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>2777.59043383</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>2833.65032076</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>2874.61431186</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>2959.5450429</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>3087.6950848</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>3022.39688483</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>2977.36798868</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>2924.065178039999</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>2973.742359469999</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>3004.961667409999</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>3067.752505189999</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>3033.236975269999</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>3053.371380049999</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>3017.309548029999</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>3042.489179109999</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>3059.368006209999</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>3095.744065359999</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>3127.337283999999</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>3186.118372769999</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>3319.090437049999</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>4112.14006033</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>4204.56592383</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>4026.357718369999</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>3868.843168379999</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>3755.96680792</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>3586.84290185</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>3417.78031773</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>3529.3000445</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>3679.44371743</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>3790.11374875</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>3693.149741549999</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>3593.512927929999</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>3683.19476918</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>3601.46395491</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>3558.33735803</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>3626.83647623</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>3549.08186191</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>3660.47551714</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>3759.32093439</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>3684.58518644</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>3603.19514012</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>3513.92770222</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>3423.90782887</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>3356.63908435</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>3305.32440051</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>3399.71203398</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>3343.23615902</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>3326.65178864</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>3212.25930319</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>3340.619710739999</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>3417.650058179999</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>3344.576743479999</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>3298.241439479999</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>3223.745939479999</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>3281.842585699999</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>3309.782882959999</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>3388.016913479999</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>3463.339677259999</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>3410.503437389999</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>3453.608500189999</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>3394.927625269999</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>3335.584509919999</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>3359.102556679999</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>3425.471719159998</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>3445.528225549998</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>3488.277022799998</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>3509.495663709998</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>3509.495663709998</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>3490.868122169998</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>3459.899026389998</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>3436.452985989998</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>3407.677673759998</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>3429.253045889998</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>3017.562666599998</v>
       </c>
       <c r="H1240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>3096.777626089998</v>
       </c>
       <c r="H1241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>3125.691017599998</v>
       </c>
       <c r="H1242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>3098.294365819998</v>
       </c>
       <c r="H1243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>3109.044950969998</v>
       </c>
       <c r="H1244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>3100.538111979999</v>
       </c>
       <c r="H1245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>3090.245686939998</v>
       </c>
       <c r="H1246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>3075.864043349999</v>
       </c>
       <c r="H1247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>3092.217643349999</v>
       </c>
       <c r="H1248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>3076.117238299998</v>
       </c>
       <c r="H1249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>3080.613640439999</v>
       </c>
       <c r="H1250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>3095.250340439999</v>
       </c>
       <c r="H1251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>3108.493455319999</v>
       </c>
       <c r="H1252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>3095.783255319999</v>
       </c>
       <c r="H1253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>3098.741855319999</v>
       </c>
       <c r="H1254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>3116.353336369998</v>
       </c>
       <c r="H1255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>3140.059836369998</v>
       </c>
       <c r="H1256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>3114.876512869998</v>
       </c>
       <c r="H1257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>3049.713386439998</v>
       </c>
       <c r="H1265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>3034.646486439998</v>
       </c>
       <c r="H1266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>3010.202786439998</v>
       </c>
       <c r="H1267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>3035.713086439998</v>
       </c>
       <c r="H1268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>3028.727886439998</v>
       </c>
       <c r="H1269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
